--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Models</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>protbert_bfd_freeze</t>
+  </si>
+  <si>
+    <t>netMHCpan4.1</t>
+  </si>
+  <si>
+    <t>netMHCpan4.1 (no WB)</t>
+  </si>
+  <si>
+    <t>sin considerar el WB</t>
   </si>
 </sst>
 </file>
@@ -61,10 +70,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,7 +94,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,8 +122,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,121 +235,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,43 +257,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,139 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +502,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,47 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,152 +574,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +745,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,15 +1075,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.4814814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.8148148148148" customWidth="1"/>
     <col min="2" max="6" width="12.4444444444444" style="1"/>
   </cols>
   <sheetData>
@@ -1223,6 +1247,49 @@
         <v>0.908303395526712</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.900557292917419</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.95855328768034</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.837161769829288</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.893754455568298</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.900689535287982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.830918695507239</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.984410329644174</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.672442225060968</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.799056102559148</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.831249275698226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Models</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>tape_freeze</t>
+  </si>
+  <si>
+    <t>tape_freeze_9_epochs</t>
   </si>
   <si>
     <t>esm2_t30_freeze</t>
@@ -70,10 +73,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,21 +97,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,6 +134,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -131,6 +158,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -147,6 +181,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -154,85 +218,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,37 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,79 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,61 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +529,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,166 +572,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +757,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1192,19 +1198,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.930287088182664</v>
+        <v>0.93930203590237</v>
       </c>
       <c r="C6" s="8">
-        <v>0.918468804374844</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.944025084194634</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.931071608558207</v>
+        <v>0.944656735370542</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.933039135988851</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.938811995723324</v>
       </c>
       <c r="F6" s="8">
-        <v>0.930258430872638</v>
+        <v>0.939315100243365</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1212,19 +1218,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.681609741330289</v>
+        <v>0.930287088182664</v>
       </c>
       <c r="C7" s="8">
-        <v>0.713917313653946</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.604412960167228</v>
+        <v>0.918468804374844</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.944025084194634</v>
       </c>
       <c r="E7" s="8">
-        <v>0.65461726159032</v>
+        <v>0.931071608558207</v>
       </c>
       <c r="F7" s="8">
-        <v>0.681770772974852</v>
+        <v>0.930258430872638</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1232,62 +1238,82 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.908279462864264</v>
+        <v>0.681609741330289</v>
       </c>
       <c r="C8" s="8">
-        <v>0.917552843886268</v>
+        <v>0.713917313653946</v>
       </c>
       <c r="D8" s="8">
-        <v>0.896806410405295</v>
+        <v>0.604412960167228</v>
       </c>
       <c r="E8" s="8">
-        <v>0.907061013783747</v>
+        <v>0.65461726159032</v>
       </c>
       <c r="F8" s="8">
-        <v>0.908303395526712</v>
+        <v>0.681770772974852</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <v>0.900557292917419</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.95855328768034</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.837161769829288</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.893754455568298</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.900689535287982</v>
+      <c r="B9" s="8">
+        <v>0.908279462864264</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.917552843886268</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.896806410405295</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.907061013783747</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.908303395526712</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="10">
+        <v>0.900557292917419</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.95855328768034</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.837161769829288</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.893754455568298</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.900689535287982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.830918695507239</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>0.984410329644174</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>0.672442225060968</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>0.799056102559148</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>0.831249275698226</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30120" windowHeight="17790"/>
+    <workbookView windowWidth="24195" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Models</t>
   </si>
@@ -37,6 +37,12 @@
     <t>tape</t>
   </si>
   <si>
+    <t>esm2_t6</t>
+  </si>
+  <si>
+    <t>esm2_t12</t>
+  </si>
+  <si>
     <t>esm2_t30</t>
   </si>
   <si>
@@ -46,25 +52,31 @@
     <t>tape_freeze</t>
   </si>
   <si>
+    <t>esm2_t6_freeze</t>
+  </si>
+  <si>
+    <t>esm2_t12_freeze</t>
+  </si>
+  <si>
+    <t>esm2_t30_freeze</t>
+  </si>
+  <si>
+    <t>esm2_t33_freeze</t>
+  </si>
+  <si>
+    <t>protbert_bfd_freeze</t>
+  </si>
+  <si>
+    <t>netMHCpan4.1</t>
+  </si>
+  <si>
+    <t>netMHCpan4.1 (no WB)</t>
+  </si>
+  <si>
+    <t>sin considerar el WB</t>
+  </si>
+  <si>
     <t>tape_freeze_9_epochs</t>
-  </si>
-  <si>
-    <t>esm2_t30_freeze</t>
-  </si>
-  <si>
-    <t>esm2_t33_freeze</t>
-  </si>
-  <si>
-    <t>protbert_bfd_freeze</t>
-  </si>
-  <si>
-    <t>netMHCpan4.1</t>
-  </si>
-  <si>
-    <t>netMHCpan4.1 (no WB)</t>
-  </si>
-  <si>
-    <t>sin considerar el WB</t>
   </si>
 </sst>
 </file>
@@ -72,11 +84,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -95,11 +107,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,6 +162,66 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -120,120 +230,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +483,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,45 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -567,8 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,16 +589,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,134 +631,110 @@
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,29 +750,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1134,23 +1164,23 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.498957005446749</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.665738915304031</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.498957005446749</v>
+      <c r="B3" s="7">
+        <v>0.934449719032475</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.933389730337339</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.935373359656253</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.934380492218812</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.934447792328195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1158,163 +1188,259 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
+        <v>0.932694557888571</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.924319582578579</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.942213447915457</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.933180743816386</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.932674701587669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>0.498957005446749</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>0.665738915304031</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>0.498957005446749</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.665738915304031</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.498957005446749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.934549339204924</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C7" s="10">
         <v>0.928260670452463</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D7" s="11">
         <v>0.941563116943444</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E7" s="10">
         <v>0.9348</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F7" s="10">
         <v>0.934534708540966</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.93930203590237</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.944656735370542</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.933039135988851</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.938811995723324</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.939315100243365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.930287088182664</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.918468804374844</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.944025084194634</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.931071608558207</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.930258430872638</v>
-      </c>
-    </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.681609741330289</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.713917313653946</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.604412960167228</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.65461726159032</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.681770772974852</v>
+      <c r="B8" s="13">
+        <v>0.935125993702037</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.925277046053229</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.946359307862036</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.93569944081478</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.935102561131069</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.908279462864264</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.917552843886268</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.896806410405295</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.907061013783747</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.908303395526712</v>
+      <c r="B9" s="11">
+        <v>0.934441137836383</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.925051147988179</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.945139937289513</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.934987650066057</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.934418820257272</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
-        <v>0.900557292917419</v>
+      <c r="B10" s="11">
+        <v>0.930287088182664</v>
       </c>
       <c r="C10" s="11">
-        <v>0.95855328768034</v>
+        <v>0.918468804374844</v>
       </c>
       <c r="D10" s="10">
-        <v>0.837161769829288</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.893754455568298</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.900689535287982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.944025084194634</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.931071608558207</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.930258430872638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
+        <v>0.681609741330289</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.713917313653946</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.604412960167228</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.65461726159032</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.681770772974852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.908279462864264</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.917552843886268</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.896806410405295</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.907061013783747</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.908303395526712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.900557292917419</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.95855328768034</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.837161769829288</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.893754455568298</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.900689535287982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15">
         <v>0.830918695507239</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C14" s="16">
         <v>0.984410329644174</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D14" s="15">
         <v>0.672442225060968</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E14" s="15">
         <v>0.799056102559148</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F14" s="15">
         <v>0.831249275698226</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.93930203590237</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.944656735370542</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.933039135988851</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.938811995723324</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.939315100243365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="17385"/>
+    <workbookView windowHeight="17970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -107,8 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,40 +117,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +139,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,88 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -278,18 +278,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +344,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,61 +416,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,67 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,22 +521,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +530,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,16 +551,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,152 +589,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,43 +750,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1114,7 +1111,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1410,7 +1407,7 @@
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="10">
         <v>0.93930203590237</v>
       </c>
       <c r="C17" s="11">
@@ -1427,20 +1424,20 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -126,6 +126,51 @@
   </si>
   <si>
     <t>Luego baja el desempeño en training para mas epochs</t>
+  </si>
+  <si>
+    <t>esm2_t30_30_epochs</t>
+  </si>
+  <si>
+    <t>Freeze es mejor. Acc_steps permite entrenar modelos grandes, pero toma mas epochs y no llega a superar al modelo sin acc_steps.</t>
+  </si>
+  <si>
+    <t>esm2_t30_acc_steps_30_epochs</t>
+  </si>
+  <si>
+    <t>17 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t30_freeze_30_epochs</t>
+  </si>
+  <si>
+    <t>14 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t30_freeze_acc_steps_30_epochs</t>
+  </si>
+  <si>
+    <t>27 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t6_30_epochs</t>
+  </si>
+  <si>
+    <t>9 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t6_acc_steps_30_epochs</t>
+  </si>
+  <si>
+    <t>15 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t6_freeze_30_epochs</t>
+  </si>
+  <si>
+    <t>6 epochs</t>
+  </si>
+  <si>
+    <t>esm2_t6_freeze_acc_steps_30_epochs</t>
   </si>
   <si>
     <t>tape 30 epochs</t>
@@ -139,11 +184,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,30 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +239,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,16 +291,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +357,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -340,108 +385,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,36 +553,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,31 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +678,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +687,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -662,17 +718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +748,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -700,173 +771,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,132 +921,150 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,56 +1466,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.9933333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.3733333333333" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.4466666666667" style="1"/>
+    <col min="1" max="1" width="30.8666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3733333333333" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.4466666666667" style="2"/>
+    <col min="8" max="8" width="24.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>0.498957005</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="35">
         <v>0.498957005</v>
       </c>
       <c r="G2" t="s">
@@ -1460,445 +1524,445 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="36"/>
       <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>0.934549339204924</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>0.928260670452463</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>0.941563116943444</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>0.9348</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="37">
         <v>0.934534708540966</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>0.934449719032475</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>0.933389730337339</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>0.935373359656253</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>0.934380492218812</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="38">
         <v>0.934447792328195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>0.898625202269851</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.896612716763005</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>0.900673557078155</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.898638549330861</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="36">
         <v>0.898620929424035</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>0.935125993702037</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>0.925277046053229</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>0.946359307862036</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>0.93569944081478</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="39">
         <v>0.935102561131069</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>0.886862649438484</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>0.891342932706435</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>0.880629427476483</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>0.885953792680433</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="37">
         <v>0.886875651871595</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>0.932694557888571</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>0.924319582578579</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>0.942213447915457</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>0.933180743816386</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="40">
         <v>0.932674701587669</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>0.900982495582117</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>0.927920556402722</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>0.869202183253977</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>0.89760210108472</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="41">
         <v>0.901048788967435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>0.934441137836383</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>0.925051147988179</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>0.945139937289513</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>0.934987650066057</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="42">
         <v>0.934418820257272</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>0.880567617884542</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>0.855600686374595</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>0.91489954709093</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>0.884257076795294</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="43">
         <v>0.880496001854212</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>0.5</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <v>0.498957005446749</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>0.665738915304031</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="44">
         <v>0.498957005446749</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>0.908949606669102</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>0.91668639613618</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>0.899291603762629</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="17">
         <v>0.907905689798693</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="41">
         <v>0.908969753157955</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>0.930287088182664</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>0.918468804374844</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>0.944025084194634</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>0.931071608558207</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="42">
         <v>0.930258430872638</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="37"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>0.498957005</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="35">
         <v>0.498957005</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="20">
         <v>0.500011564704521</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>0.49896278784086</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>0.665744062345373</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="44">
         <v>0.498968594275118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>0.681609741330289</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>0.713917313653946</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>0.604412960167228</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>0.65461726159032</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="42">
         <v>0.681770772974852</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="38"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="20">
         <v>0.5</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>0.498957005446749</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <v>1</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="20">
         <v>0.665738915304031</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="44">
         <v>0.498957005446749</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>0.908279462864264</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>0.917552843886268</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>0.896806410405295</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>0.907061013783747</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="42">
         <v>0.908303395526712</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>0.900557292917419</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="23">
         <v>0.95855328768034</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>0.837161769829288</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="22">
         <v>0.893754455568298</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="45">
         <v>0.900689535287982</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>0.830918695507239</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="26">
         <v>0.984410329644174</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="25">
         <v>0.672442225060968</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="25">
         <v>0.799056102559148</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="46">
         <v>0.831249275698226</v>
       </c>
       <c r="G27" t="s">
@@ -1906,45 +1970,226 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="28">
         <v>0.93930203590237</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="29">
         <v>0.944656735370542</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="30">
         <v>0.933039135988851</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="28">
         <v>0.938811995723324</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="28">
         <v>0.939315100243365</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="D32" s="32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.665738915304031</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.934570882512929</v>
+      </c>
+      <c r="C33" s="33">
+        <v>0.933727536231884</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.935245616072465</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.934485959619401</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.934569475026074</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="33">
+        <v>0.939272274012397</v>
+      </c>
+      <c r="C34" s="33">
+        <v>0.930368077211991</v>
+      </c>
+      <c r="D34" s="34">
+        <v>0.949297410289165</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0.939737429011565</v>
+      </c>
+      <c r="F34" s="33">
+        <v>0.939251361687333</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.93630037662043</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.93190887450119</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.941075368714435</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.936469690928946</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.936290416038938</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.938980598626764</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.933250020063975</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.945290906979444</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.93923187427523</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.938967435392281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.936590001893248</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.932236138425973</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.941319242828939</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.936755672920795</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.936580136748174</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="34">
+        <v>0.940109036992643</v>
+      </c>
+      <c r="C39" s="34">
+        <v>0.939830508474576</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.940157937521774</v>
+      </c>
+      <c r="E39" s="34">
+        <v>0.93999419448476</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.940108934986672</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.935398406891108</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.932594644506001</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.938334688189525</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.935455861070911</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.935392281840306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H32:H40"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1963,10 +2208,10 @@
   <sheetData>
     <row r="2" spans="4:13">
       <c r="D2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31110" windowHeight="17745"/>
+    <workbookView windowWidth="17970" windowHeight="17745"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -80,6 +80,9 @@
     <t>esm2_t30</t>
   </si>
   <si>
+    <t>ñ</t>
+  </si>
+  <si>
     <t>esm2_t30_acc_steps</t>
   </si>
   <si>
@@ -122,10 +125,19 @@
     <t>sin considerar el WB</t>
   </si>
   <si>
+    <t>Entrenamiento con 30 epochs</t>
+  </si>
+  <si>
     <t>tape_freeze_9_epochs</t>
   </si>
   <si>
     <t>Luego baja el desempeño en training para mas epochs</t>
+  </si>
+  <si>
+    <t>tape_freeze_30_epochs</t>
+  </si>
+  <si>
+    <t>10 epochs</t>
   </si>
   <si>
     <t>esm2_t30_30_epochs</t>
@@ -184,11 +196,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -222,6 +234,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -231,17 +272,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,22 +296,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,30 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +342,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,181 +397,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,11 +686,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +705,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -718,17 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,17 +755,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,147 +774,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,127 +952,118 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1466,10 +1469,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1480,7 +1485,7 @@
     <col min="8" max="8" width="24.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1521,7 @@
       <c r="E2" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="32">
         <v>0.498957005</v>
       </c>
       <c r="G2" t="s">
@@ -1531,7 +1536,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
       <c r="G3" t="s">
         <v>9</v>
       </c>
@@ -1552,11 +1557,11 @@
       <c r="E4" s="11">
         <v>0.9348</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <v>0.934534708540966</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1569,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="37"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
@@ -1582,7 +1587,7 @@
       <c r="E6" s="13">
         <v>0.934380492218812</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="35">
         <v>0.934447792328195</v>
       </c>
     </row>
@@ -1602,7 +1607,7 @@
       <c r="E7" s="8">
         <v>0.898638549330861</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="33">
         <v>0.898620929424035</v>
       </c>
     </row>
@@ -1622,11 +1627,11 @@
       <c r="E8" s="15">
         <v>0.93569944081478</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="36">
         <v>0.935102561131069</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="15.75" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1647,7 @@
       <c r="E9" s="11">
         <v>0.885953792680433</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <v>0.886875651871595</v>
       </c>
     </row>
@@ -1662,7 +1667,7 @@
       <c r="E10" s="16">
         <v>0.933180743816386</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="37">
         <v>0.932674701587669</v>
       </c>
     </row>
@@ -1682,7 +1687,7 @@
       <c r="E11" s="17">
         <v>0.89760210108472</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <v>0.901048788967435</v>
       </c>
     </row>
@@ -1702,11 +1707,11 @@
       <c r="E12" s="12">
         <v>0.934987650066057</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="39">
         <v>0.934418820257272</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="15.75" spans="1:6">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1722,11 +1727,11 @@
       <c r="E13" s="19">
         <v>0.884257076795294</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="40">
         <v>0.880496001854212</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1742,13 +1747,16 @@
       <c r="E14" s="20">
         <v>0.665738915304031</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="41">
         <v>0.498957005446749</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="17">
         <v>0.908949606669102</v>
@@ -1762,13 +1770,13 @@
       <c r="E15" s="17">
         <v>0.907905689798693</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="38">
         <v>0.908969753157955</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="12">
         <v>0.930287088182664</v>
@@ -1782,23 +1790,23 @@
       <c r="E16" s="12">
         <v>0.931071608558207</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="39">
         <v>0.930258430872638</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="15.75" spans="1:6">
       <c r="A17" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>0.5</v>
@@ -1812,13 +1820,13 @@
       <c r="E18" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="32">
         <v>0.498957005</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="20">
         <v>0.500011564704521</v>
@@ -1832,13 +1840,13 @@
       <c r="E19" s="20">
         <v>0.665744062345373</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="41">
         <v>0.498968594275118</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="12">
         <v>0.681609741330289</v>
@@ -1852,23 +1860,23 @@
       <c r="E20" s="12">
         <v>0.65461726159032</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="39">
         <v>0.681770772974852</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="15.75" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="20">
         <v>0.5</v>
@@ -1882,23 +1890,23 @@
       <c r="E22" s="20">
         <v>0.665738915304031</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <v>0.498957005446749</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="44"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="12">
         <v>0.908279462864264</v>
@@ -1912,23 +1920,23 @@
       <c r="E24" s="12">
         <v>0.907061013783747</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="39">
         <v>0.908303395526712</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="15.75" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="22">
         <v>0.900557292917419</v>
@@ -1942,13 +1950,13 @@
       <c r="E26" s="22">
         <v>0.893754455568298</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="42">
         <v>0.900689535287982</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="15.75" spans="1:7">
       <c r="A27" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="25">
         <v>0.830918695507239</v>
@@ -1962,233 +1970,267 @@
       <c r="E27" s="25">
         <v>0.799056102559148</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="43">
         <v>0.831249275698226</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="28">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="28">
         <v>0.93930203590237</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C31" s="28">
         <v>0.944656735370542</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D31" s="28">
         <v>0.933039135988851</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E31" s="28">
         <v>0.938811995723324</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F31" s="28">
         <v>0.939315100243365</v>
       </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="32">
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0.939986239734108</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.932926411082916</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.947834165602136</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.940321205557731</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0.939969869046239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="31">
         <v>0.5</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C34" s="31">
         <v>0.498957005446749</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D34" s="31">
         <v>1</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E34" s="31">
         <v>0.665738915304031</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F34" s="31">
         <v>0.498957005446749</v>
       </c>
-      <c r="H32" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="H34" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="12">
         <v>0.934570882512929</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C35" s="11">
         <v>0.933727536231884</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D35" s="12">
         <v>0.935245616072465</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E35" s="12">
         <v>0.934485959619401</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F35" s="12">
         <v>0.934569475026074</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="33">
-        <v>0.939272274012397</v>
-      </c>
-      <c r="C34" s="33">
-        <v>0.930368077211991</v>
-      </c>
-      <c r="D34" s="34">
-        <v>0.949297410289165</v>
-      </c>
-      <c r="E34" s="33">
-        <v>0.939737429011565</v>
-      </c>
-      <c r="F34" s="33">
-        <v>0.939251361687333</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0.93630037662043</v>
-      </c>
-      <c r="C35" s="12">
-        <v>0.93190887450119</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0.941075368714435</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0.936469690928946</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0.936290416038938</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="47"/>
+      <c r="H35" s="44"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.939272274012397</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.930368077211991</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.949297410289165</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.939737429011565</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.939251361687333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
-        <v>45</v>
+      <c r="A37" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="B37" s="12">
+        <v>0.93630037662043</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.93190887450119</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.941075368714435</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.936469690928946</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.936290416038938</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="44"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="12">
         <v>0.938980598626764</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C39" s="12">
         <v>0.933250020063975</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D39" s="12">
         <v>0.945290906979444</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E39" s="12">
         <v>0.93923187427523</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F39" s="12">
         <v>0.938967435392281</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0.936590001893248</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0.932236138425973</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0.941319242828939</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0.936755672920795</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.936580136748174</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="34">
-        <v>0.940109036992643</v>
-      </c>
-      <c r="C39" s="34">
-        <v>0.939830508474576</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.940157937521774</v>
-      </c>
-      <c r="E39" s="34">
-        <v>0.93999419448476</v>
-      </c>
-      <c r="F39" s="34">
-        <v>0.940108934986672</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="12">
+        <v>0.936590001893248</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.932236138425973</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.941319242828939</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.936755672920795</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.936580136748174</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="15">
+        <v>0.940109036992643</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.939830508474576</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.940157937521774</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.93999419448476</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.940108934986672</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="12">
         <v>0.935398406891108</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C42" s="12">
         <v>0.932594644506001</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D42" s="12">
         <v>0.938334688189525</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E42" s="12">
         <v>0.935455861070911</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F42" s="12">
         <v>0.935392281840306</v>
       </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="47"/>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H32:H40"/>
+    <mergeCell ref="H34:H42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2208,10 +2250,10 @@
   <sheetData>
     <row r="2" spans="4:13">
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17970" windowHeight="17745"/>
+    <workbookView windowWidth="26100" windowHeight="13536"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Model</t>
   </si>
@@ -38,13 +38,16 @@
     <t>tape</t>
   </si>
   <si>
-    <t>Entrenar el modelo grande con mas epocas y accumulation steps</t>
+    <t>En TAPE; al aplicar acc steps, se supera al modelo usando freeze</t>
   </si>
   <si>
     <t>tape_acc_steps</t>
   </si>
   <si>
-    <t>Evaluar con una neurona al final</t>
+    <t xml:space="preserve">acc_steps=64 </t>
+  </si>
+  <si>
+    <t>tape_freeze(old)</t>
   </si>
   <si>
     <t>tape_freeze</t>
@@ -80,9 +83,6 @@
     <t>esm2_t30</t>
   </si>
   <si>
-    <t>ñ</t>
-  </si>
-  <si>
     <t>esm2_t30_acc_steps</t>
   </si>
   <si>
@@ -95,7 +95,16 @@
     <t>esm2_t33</t>
   </si>
   <si>
-    <t>esm2_t33_acc_steps</t>
+    <t>esm2_t33_acc_steps(64)</t>
+  </si>
+  <si>
+    <t>acc_steps=64 no conerge</t>
+  </si>
+  <si>
+    <t>esm2_t33_acc_steps(128)</t>
+  </si>
+  <si>
+    <t>acc_steps = 128</t>
   </si>
   <si>
     <t>esm2_t33_freeze</t>
@@ -110,6 +119,9 @@
     <t>protbert_bfd_acc_steps</t>
   </si>
   <si>
+    <t>el epoch 2 es mejor</t>
+  </si>
+  <si>
     <t>protbert_bfd_freeze</t>
   </si>
   <si>
@@ -128,16 +140,28 @@
     <t>Entrenamiento con 30 epochs</t>
   </si>
   <si>
-    <t>tape_freeze_9_epochs</t>
-  </si>
-  <si>
-    <t>Luego baja el desempeño en training para mas epochs</t>
+    <t>tape_freeze_9_epochs(old)</t>
+  </si>
+  <si>
+    <t>tape_freeze_10_epochs(old)</t>
+  </si>
+  <si>
+    <t>tape_30_epochs</t>
+  </si>
+  <si>
+    <t>tape_acc_steps_30_epochs</t>
   </si>
   <si>
     <t>tape_freeze_30_epochs</t>
   </si>
   <si>
-    <t>10 epochs</t>
+    <t>9 epochs</t>
+  </si>
+  <si>
+    <t>Ultimo entrenamiento</t>
+  </si>
+  <si>
+    <t>tape_freeze_acc_steps_30_epochs</t>
   </si>
   <si>
     <t>esm2_t30_30_epochs</t>
@@ -165,9 +189,6 @@
   </si>
   <si>
     <t>esm2_t6_30_epochs</t>
-  </si>
-  <si>
-    <t>9 epochs</t>
   </si>
   <si>
     <t>esm2_t6_acc_steps_30_epochs</t>
@@ -197,10 +218,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -235,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,8 +270,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,97 +384,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,25 +418,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,25 +538,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,134 +608,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -635,21 +662,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -757,17 +769,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -783,147 +784,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,7 +945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,10 +970,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,37 +985,37 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,13 +1027,25 @@
     <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,40 +1054,49 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1140,10 +1173,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>724535</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,8 +1193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="485775"/>
-          <a:ext cx="7353935" cy="5357495"/>
+          <a:off x="76200" y="455295"/>
+          <a:ext cx="5958840" cy="5357495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,10 +1211,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>672465</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1198,8 +1231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677150" y="476250"/>
-          <a:ext cx="7244715" cy="5359400"/>
+          <a:off x="6168390" y="445770"/>
+          <a:ext cx="5901690" cy="5359400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,23 +1502,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.8666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3733333333333" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.4466666666667" style="2"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.45" style="2"/>
     <col min="8" max="8" width="24.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
+    <row r="1" ht="14.55" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1521,27 +1554,37 @@
       <c r="E2" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="36">
         <v>0.498957005</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="33"/>
-      <c r="G3" t="s">
+      <c r="B3" s="8">
+        <v>0.937143841246892</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.929036450910417</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.946266403437463</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.937572274288475</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.937124811681539</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1557,680 +1600,834 @@
       <c r="E4" s="11">
         <v>0.9348</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="38">
         <v>0.934534708540966</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="11">
+        <v>0.934184978489663</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.927620965435178</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.941528277784229</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.934522883275412</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.934169660447328</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13">
-        <v>0.934449719032475</v>
+      <c r="B6" s="14">
+        <v>0.89137631291998</v>
       </c>
       <c r="C6" s="14">
-        <v>0.933389730337339</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.935373359656253</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.934380492218812</v>
-      </c>
-      <c r="F6" s="35">
-        <v>0.934447792328195</v>
+        <v>0.88511806071694</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.898943212170479</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.891977069109555</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.891360528450573</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
+        <v>0.934449719032475</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.933389730337339</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.935373359656253</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.934380492218812</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.934447792328195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.898625202269851</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="9">
         <v>0.896612716763005</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="9">
         <v>0.900673557078155</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="9">
         <v>0.898638549330861</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F8" s="40">
         <v>0.898620929424035</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.935125993702037</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.925277046053229</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.946359307862036</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.93569944081478</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0.935102561131069</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="11">
+        <v>0.935125993702037</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.925277046053229</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.946359307862036</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.93569944081478</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.935102561131069</v>
+      </c>
+    </row>
+    <row r="10" ht="14.55" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11">
         <v>0.886862649438484</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>0.891342932706435</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>0.880629427476483</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>0.885953792680433</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F10" s="38">
         <v>0.886875651871595</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16">
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="16">
         <v>0.932694557888571</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C11" s="16">
         <v>0.924319582578579</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="17">
         <v>0.942213447915457</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>0.933180743816386</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F11" s="41">
         <v>0.932674701587669</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="17">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="18">
         <v>0.900982495582117</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C12" s="18">
         <v>0.927920556402722</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="18">
         <v>0.869202183253977</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="18">
         <v>0.89760210108472</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F12" s="42">
         <v>0.901048788967435</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12">
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="12">
         <v>0.934441137836383</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <v>0.925051147988179</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>0.945139937289513</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>0.934987650066057</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F13" s="43">
         <v>0.934418820257272</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="19">
+    <row r="14" ht="14.55" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="19">
         <v>0.880567617884542</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C14" s="19">
         <v>0.855600686374595</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="19">
         <v>0.91489954709093</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="19">
         <v>0.884257076795294</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F14" s="44">
         <v>0.880496001854212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.498957005446749</v>
-      </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.665738915304031</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0.498957005446749</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.665738915304031</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0.498957005446749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B16" s="18">
         <v>0.908949606669102</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C16" s="18">
         <v>0.91668639613618</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="18">
         <v>0.899291603762629</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="18">
         <v>0.907905689798693</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F16" s="42">
         <v>0.908969753157955</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B17" s="12">
         <v>0.930287088182664</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C17" s="12">
         <v>0.918468804374844</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>0.944025084194634</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>0.931071608558207</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F17" s="43">
         <v>0.930258430872638</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="10" t="s">
+    <row r="18" ht="14.55" spans="1:6">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>0.498957005</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>0.665738915</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F19" s="36">
         <v>0.498957005</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B20" s="20">
         <v>0.500011564704521</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C20" s="20">
         <v>0.49896278784086</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="20">
         <v>0.665744062345373</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F20" s="45">
         <v>0.498968594275118</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="I20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="12">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="43"/>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="12">
         <v>0.681609741330289</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C22" s="12">
         <v>0.713917313653946</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D22" s="12">
         <v>0.604412960167228</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E22" s="12">
         <v>0.65461726159032</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F22" s="43">
         <v>0.681770772974852</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="23" ht="14.55" spans="1:9">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="43"/>
+      <c r="I23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="20">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6">
         <v>0.5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C24" s="6">
         <v>0.498957005446749</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E24" s="6">
         <v>0.665738915304031</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F24" s="36">
         <v>0.498957005446749</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="12">
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0.913685844714369</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.95693116941433</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.866194402508419</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.909304806314955</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0.913784911345463</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="12">
         <v>0.908279462864264</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C26" s="12">
         <v>0.917552843886268</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="12">
         <v>0.896806410405295</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E26" s="12">
         <v>0.907061013783747</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F26" s="43">
         <v>0.908303395526712</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="22">
+    <row r="27" ht="14.55" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0.786617122743685</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.733282170807041</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.898792242480548</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.807644947197061</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.786383126665894</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="22">
         <v>0.900557292917419</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C28" s="23">
         <v>0.95855328768034</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D28" s="22">
         <v>0.837161769829288</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E28" s="22">
         <v>0.893754455568298</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F28" s="46">
         <v>0.900689535287982</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
-      <c r="A27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="25">
+    <row r="29" ht="14.55" spans="1:7">
+      <c r="A29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="25">
         <v>0.830918695507239</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C29" s="26">
         <v>0.984410329644174</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D29" s="25">
         <v>0.672442225060968</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E29" s="25">
         <v>0.799056102559148</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F29" s="47">
         <v>0.831249275698226</v>
       </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
+      <c r="G29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="28">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="14.55" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="28">
         <v>0.93930203590237</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C33" s="28">
         <v>0.944656735370542</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D33" s="28">
         <v>0.933039135988851</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E33" s="28">
         <v>0.938811995723324</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F33" s="48">
         <v>0.939315100243365</v>
       </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="28">
+    </row>
+    <row r="34" ht="14.55" spans="1:6">
+      <c r="A34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="30">
         <v>0.939986239734108</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C34" s="30">
         <v>0.932926411082916</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D34" s="30">
         <v>0.947834165602136</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E34" s="30">
         <v>0.940321205557731</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F34" s="49">
         <v>0.939969869046239</v>
       </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="31">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="32">
         <v>0.5</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C35" s="32">
         <v>0.498957005446749</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D35" s="32">
         <v>1</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E35" s="32">
         <v>0.665738915304031</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F35" s="50">
         <v>0.498957005446749</v>
       </c>
-      <c r="H34" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="12">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="38"/>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.939515199958119</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.940424640312892</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.938218557658808</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.939320303689148</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0.93951790473983</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" ht="14.55" spans="1:9">
+      <c r="A38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="19">
+        <v>0.935922391686724</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.929710850271972</v>
+      </c>
+      <c r="D38" s="33">
+        <v>0.942828939728254</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0.936223945570386</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0.935907984702746</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="35">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="D42" s="35">
+        <v>1</v>
+      </c>
+      <c r="E42" s="35">
+        <v>0.665738915304031</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="12">
         <v>0.934570882512929</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C43" s="11">
         <v>0.933727536231884</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D43" s="12">
         <v>0.935245616072465</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E43" s="12">
         <v>0.934485959619401</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F43" s="12">
         <v>0.934569475026074</v>
       </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="51"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="11">
         <v>0.939272274012397</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C44" s="11">
         <v>0.930368077211991</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D44" s="15">
         <v>0.949297410289165</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E44" s="11">
         <v>0.939737429011565</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F44" s="11">
         <v>0.939251361687333</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="51"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.93630037662043</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.93190887450119</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.941075368714435</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.936469690928946</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.936290416038938</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="51"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="51"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.938980598626764</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.933250020063975</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.945290906979444</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.93923187427523</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0.938967435392281</v>
+      </c>
+      <c r="G47" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="12">
-        <v>0.93630037662043</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0.93190887450119</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0.941075368714435</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.936469690928946</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0.936290416038938</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="44"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="12">
-        <v>0.938980598626764</v>
-      </c>
-      <c r="C39" s="12">
-        <v>0.933250020063975</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.945290906979444</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.93923187427523</v>
-      </c>
-      <c r="F39" s="12">
-        <v>0.938967435392281</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="12">
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="12">
         <v>0.936590001893248</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C48" s="12">
         <v>0.932236138425973</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D48" s="12">
         <v>0.941319242828939</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E48" s="12">
         <v>0.936755672920795</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F48" s="12">
         <v>0.936580136748174</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="15">
+        <v>0.940109036992643</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.939830508474576</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.940157937521774</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.93999419448476</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0.940108934986672</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.935398406891108</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0.932594644506001</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.938334688189525</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.935455861070911</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.935392281840306</v>
+      </c>
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="15">
-        <v>0.940109036992643</v>
-      </c>
-      <c r="C41" s="15">
-        <v>0.939830508474576</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0.940157937521774</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0.93999419448476</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.940108934986672</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0.935398406891108</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0.932594644506001</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0.938334688189525</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0.935455861070911</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0.935392281840306</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="44"/>
+      <c r="H50" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="H42:H50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2246,14 +2443,14 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <sheetData>
     <row r="2" spans="4:13">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22752" windowHeight="13536" activeTab="2"/>
+    <workbookView windowWidth="22752" windowHeight="13536"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -301,8 +301,8 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -357,16 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,17 +373,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,24 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +411,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,13 +450,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -470,16 +478,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +493,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,187 +552,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,11 +863,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,21 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -927,21 +942,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,152 +965,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,9 +1130,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1210,9 +1207,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1297,11 +1291,11 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1747,667 +1741,677 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="9" customWidth="1"/>
-    <col min="3" max="6" width="12.45" style="9"/>
+    <col min="1" max="1" width="25.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="8" customWidth="1"/>
+    <col min="3" max="6" width="12.45" style="8"/>
     <col min="7" max="7" width="6.84166666666667" customWidth="1"/>
     <col min="8" max="8" width="26.5416666666667" customWidth="1"/>
     <col min="9" max="9" width="10.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>0.934449719032475</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>0.933389730337339</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>0.935373359656253</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.934380492218812</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="53">
         <v>0.934447792328195</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0.898625202269851</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.896612716763005</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.900673557078155</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.898638549330861</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>0.898620929424035</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>0.935125993702037</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.925277046053229</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.946359307862036</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.93569944081478</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="55">
         <v>0.935102561131069</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" ht="14.55" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>0.886862649438484</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.891342932706435</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.880629427476483</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.885953792680433</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="53">
         <v>0.886875651871595</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>0.932694557888571</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>0.924319582578579</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.942213447915457</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.933180743816386</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <v>0.932674701587669</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>0.900982495582117</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>0.927920556402722</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>0.869202183253977</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.89760210108472</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>0.901048788967435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>0.934441137836383</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.925051147988179</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.945139937289513</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0.934987650066057</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <v>0.934418820257272</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>0.880567617884542</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>0.855600686374595</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.91489954709093</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.884257076795294</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>0.880496001854212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>0.5</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>0.498957005446749</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0.665738915304031</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>0.498957005446749</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0.908949606669102</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.91668639613618</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0.899291603762629</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.907905689798693</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>0.908969753157955</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>0.930287088182664</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0.918468804374844</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>0.944025084194634</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0.931071608558207</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>0.930258430872638</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="1:9">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>0.856675291555521</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>0.815603201711969</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>0.920624782255254</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>0.864937700482248</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="59">
         <v>0.856541893614555</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>0.5</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <v>0.498957005</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>0.665738915</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="58">
         <v>0.498957005</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0.500011564704521</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>0.49896278784086</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0.665744062345373</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>0.498968594275118</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64" t="s">
+      <c r="H15" s="60"/>
+      <c r="I15" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="12">
+        <v>0.677054482651244</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.631234902466688</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.846672860294971</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.723251442147919</v>
+      </c>
+      <c r="F16" s="53">
+        <v>0.676700660563217</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>0.681609741330289</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>0.713917313653946</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0.604412960167228</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>0.65461726159032</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>0.681770772974852</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" ht="14.55" spans="1:9">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>0.674220956794433</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>0.625446988245786</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0.863256300081291</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>0.725357507037924</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="59">
         <v>0.673826631127593</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" ht="14.55" spans="1:9">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="65"/>
-      <c r="I19" s="64"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="63"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>0.5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>0.498957005446749</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>0.665738915304031</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="58">
         <v>0.498957005446749</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="64"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>0.913685844714369</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>0.95693116941433</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>0.866194402508419</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>0.909304806314955</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>0.913784911345463</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64" t="s">
+      <c r="H21" s="60"/>
+      <c r="I21" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="62" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>0.908279462864264</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>0.917552843886268</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>0.896806410405295</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0.907061013783747</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="53">
         <v>0.908303395526712</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" ht="14.55" spans="1:9">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>0.786617122743685</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>0.733282170807041</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>0.898792242480548</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>0.807644947197061</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="59">
         <v>0.786383126665894</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64" t="s">
+      <c r="H23" s="60"/>
+      <c r="I23" s="62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>0.5</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>0.498957005</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>0.665738915</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="58">
         <v>0.498957005</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0.937143841246892</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>0.929036450910417</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>0.946266403437463</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>0.937572274288475</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="64">
         <v>0.937124811681539</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64" t="s">
+      <c r="H25" s="60"/>
+      <c r="I25" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="1" hidden="1" spans="1:9">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>0.934549339204924</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>0.928260670452463</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>0.941563116943444</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>0.9348</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="53">
         <v>0.934534708540966</v>
       </c>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" customFormat="1" spans="1:9">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>0.934184978489663</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>0.927620965435178</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>0.941528277784229</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>0.934522883275412</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="53">
         <v>0.934169660447328</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" ht="14.55" spans="1:9">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>0.89137631291998</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>0.88511806071694</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>0.898943212170479</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>0.891977069109555</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="59">
         <v>0.891360528450573</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64" t="s">
+      <c r="H28" s="60"/>
+      <c r="I28" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" ht="14.55" spans="1:6">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>0.900557292917419</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>0.95855328768034</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>0.837161769829288</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>0.893754455568298</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="65">
         <v>0.900689535287982</v>
       </c>
     </row>
     <row r="30" ht="14.55" hidden="1" spans="1:7">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>0.830918695507239</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>0.984410329644174</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>0.672442225060968</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <v>0.799056102559148</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="66">
         <v>0.831249275698226</v>
       </c>
       <c r="G30" t="s">
@@ -2415,394 +2419,394 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" ht="14.55" spans="1:6">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" hidden="1" spans="1:6">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="33">
         <v>0.93930203590237</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <v>0.944656735370542</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>0.933039135988851</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>0.938811995723324</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="67">
         <v>0.939315100243365</v>
       </c>
     </row>
     <row r="35" ht="14.55" hidden="1" spans="1:6">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="35">
         <v>0.939986239734108</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="35">
         <v>0.932926411082916</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="35">
         <v>0.947834165602136</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="35">
         <v>0.940321205557731</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="68">
         <v>0.939969869046239</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="37">
         <v>0.5</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="37">
         <v>0.498957005446749</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="37">
         <v>1</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="37">
         <v>0.665738915304031</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="69">
         <v>0.498957005446749</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="72" t="s">
+      <c r="G36" s="62"/>
+      <c r="H36" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="64"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="39">
         <v>0.9414965940394</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="40">
         <v>0.935238945958016</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <v>0.948391592149576</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="39">
         <v>0.941769349193627</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="71">
         <v>0.941482211148452</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="64" t="s">
+      <c r="H37" s="70"/>
+      <c r="I37" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="42">
         <v>0.939515199958119</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="43">
         <v>0.940424640312892</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="42">
         <v>0.938218557658808</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="42">
         <v>0.939320303689148</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="72">
         <v>0.93951790473983</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="64"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" ht="14.55" spans="1:9">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="45">
         <v>0.935922391686724</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="45">
         <v>0.929710850271972</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="45">
         <v>0.942828939728254</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="45">
         <v>0.936223945570386</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="73">
         <v>0.935907984702746</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="64" t="s">
+      <c r="H39" s="70"/>
+      <c r="I39" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" ht="14.55" spans="1:9">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="64"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="37">
         <v>0.5</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="37">
         <v>0.498957005446749</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="37">
         <v>1</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="37">
         <v>0.665738915304031</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="69">
         <v>0.498957005446749</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="64"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="42">
         <v>0.934570882512929</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="42">
         <v>0.933727536231884</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="42">
         <v>0.935245616072465</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="42">
         <v>0.934485959619401</v>
       </c>
-      <c r="F42" s="74">
+      <c r="F42" s="72">
         <v>0.934569475026074</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="64"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="40">
         <v>0.939272274012397</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="40">
         <v>0.930368077211991</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="40">
         <v>0.949297410289165</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="40">
         <v>0.939737429011565</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="74">
         <v>0.939251361687333</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="64"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" ht="14.55" spans="1:9">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <v>0.93630037662043</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="45">
         <v>0.93190887450119</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="45">
         <v>0.941075368714435</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="45">
         <v>0.936469690928946</v>
       </c>
-      <c r="F44" s="75">
+      <c r="F44" s="73">
         <v>0.936290416038938</v>
       </c>
-      <c r="G44" s="64" t="s">
+      <c r="G44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="64"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" ht="14.55" spans="1:9">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="64"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="54">
+      <c r="B46" s="52">
         <v>0.938980598626764</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="52">
         <v>0.933250020063975</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="52">
         <v>0.945290906979444</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="52">
         <v>0.93923187427523</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="75">
         <v>0.938967435392281</v>
       </c>
-      <c r="G46" s="64" t="s">
+      <c r="G46" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="64"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="42">
         <v>0.936590001893248</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="42">
         <v>0.932236138425973</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="42">
         <v>0.941319242828939</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="42">
         <v>0.936755672920795</v>
       </c>
-      <c r="F47" s="74">
+      <c r="F47" s="72">
         <v>0.936580136748174</v>
       </c>
-      <c r="G47" s="64" t="s">
+      <c r="G47" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="64"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="40">
         <v>0.940109036992643</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="40">
         <v>0.939830508474576</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="40">
         <v>0.940157937521774</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="40">
         <v>0.93999419448476</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="74">
         <v>0.940108934986672</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="64"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" ht="14.55" spans="1:9">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="45">
         <v>0.935398406891108</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="45">
         <v>0.932594644506001</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="45">
         <v>0.938334688189525</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="45">
         <v>0.935455861070911</v>
       </c>
-      <c r="F49" s="75">
+      <c r="F49" s="73">
         <v>0.935392281840306</v>
       </c>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="72"/>
-      <c r="I49" s="64"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2847,7 +2851,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2887,10 +2891,10 @@
       </c>
     </row>
     <row r="2" ht="84" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22752" windowHeight="13536"/>
+    <workbookView windowHeight="13703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>Model</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>esm2_t33_freeze_acc_steps</t>
+  </si>
+  <si>
+    <t>demostrar que tape es mas parecido a pMHC, y xq esm2 pequeño es mejor, quizas el problema no es tan complejo</t>
   </si>
   <si>
     <t>protbert_bfd</t>
@@ -233,6 +236,9 @@
     <t>Dataset</t>
   </si>
   <si>
+    <t>Perplexity</t>
+  </si>
+  <si>
     <t>Num. samples</t>
   </si>
   <si>
@@ -245,6 +251,9 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>Hiperparameters</t>
+  </si>
+  <si>
     <t>TAPE</t>
   </si>
   <si>
@@ -260,19 +269,59 @@
     <t xml:space="preserve">12 of 512 units </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 u </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">92M  </t>
   </si>
   <si>
     <t>ProtBert-bfd</t>
   </si>
   <si>
+    <t>BFD100</t>
+  </si>
+  <si>
     <t>420M</t>
   </si>
   <si>
     <t>ESM2-t6</t>
   </si>
   <si>
+    <t>UniRef50</t>
+  </si>
+  <si>
+    <t>60 million protein sequences</t>
+  </si>
+  <si>
     <t>8M</t>
+  </si>
+  <si>
+    <t>Adam b1=0.9, b2=0.98, e=10^-8
+weight decay = 0.01
+lr warn up = 2000 to 4e-4
+linearly decay
+500K steps
+2 million tokens as batch size</t>
   </si>
   <si>
     <t>ESM2-t12</t>
@@ -300,11 +349,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +371,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -357,9 +413,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,9 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,8 +466,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,32 +497,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,13 +506,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,23 +526,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +548,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -552,25 +608,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +722,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,31 +758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,103 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,16 +919,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -883,6 +939,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,15 +967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -926,13 +982,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,17 +1006,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,152 +1021,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,10 +1188,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,13 +1212,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1230,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,13 +1239,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,7 +1284,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,10 +1335,10 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,22 +1347,22 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,10 +1380,10 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,1074 +1801,1077 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="8" customWidth="1"/>
-    <col min="3" max="6" width="12.45" style="8"/>
+    <col min="1" max="1" width="25.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="10" customWidth="1"/>
+    <col min="3" max="6" width="12.45" style="10"/>
     <col min="7" max="7" width="6.84166666666667" customWidth="1"/>
     <col min="8" max="8" width="26.5416666666667" customWidth="1"/>
     <col min="9" max="9" width="10.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>0.934449719032475</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <v>0.933389730337339</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="14">
         <v>0.935373359656253</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>0.934380492218812</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="55">
         <v>0.934447792328195</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>0.898625202269851</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>0.896612716763005</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>0.900673557078155</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>0.898638549330861</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="55">
         <v>0.898620929424035</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>0.935125993702037</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>0.925277046053229</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>0.946359307862036</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="17">
         <v>0.93569944081478</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="57">
         <v>0.935102561131069</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" ht="14.55" spans="1:8">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>0.886862649438484</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>0.891342932706435</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>0.880629427476483</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>0.885953792680433</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="55">
         <v>0.886875651871595</v>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <v>0.932694557888571</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>0.924319582578579</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>0.942213447915457</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>0.933180743816386</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="58">
         <v>0.932674701587669</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>0.900982495582117</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>0.927920556402722</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>0.869202183253977</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>0.89760210108472</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="55">
         <v>0.901048788967435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="18">
         <v>0.934441137836383</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>0.925051147988179</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>0.945139937289513</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>0.934987650066057</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="59">
         <v>0.934418820257272</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>0.880567617884542</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>0.855600686374595</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <v>0.91489954709093</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <v>0.884257076795294</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="55">
         <v>0.880496001854212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="21">
         <v>0.5</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>0.498957005446749</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="21">
         <v>0.665738915304031</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="60">
         <v>0.498957005446749</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>0.908949606669102</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>0.91668639613618</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <v>0.899291603762629</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>0.907905689798693</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="55">
         <v>0.908969753157955</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="18">
         <v>0.930287088182664</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>0.918468804374844</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <v>0.944025084194634</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <v>0.931071608558207</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="59">
         <v>0.930258430872638</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="20" t="s">
+    <row r="13" ht="14.55" spans="1:9">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="23">
         <v>0.856675291555521</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="23">
         <v>0.815603201711969</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="23">
         <v>0.920624782255254</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="23">
         <v>0.864937700482248</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="61">
         <v>0.856541893614555</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="21">
         <v>0.5</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <v>0.498957005</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="21">
         <v>0.665738915</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="60">
         <v>0.498957005</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="24">
         <v>0.500011564704521</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="24">
         <v>0.49896278784086</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="24">
         <v>0.665744062345373</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="63">
         <v>0.498968594275118</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="62" t="s">
+      <c r="H15" s="62"/>
+      <c r="I15" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>0.677054482651244</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>0.631234902466688</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <v>0.846672860294971</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <v>0.723251442147919</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="55">
         <v>0.676700660563217</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="62" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="18">
         <v>0.681609741330289</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="18">
         <v>0.713917313653946</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="18">
         <v>0.604412960167228</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="18">
         <v>0.65461726159032</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="59">
         <v>0.681770772974852</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="62"/>
-    </row>
-    <row r="18" ht="14.55" spans="1:9">
-      <c r="A18" s="20" t="s">
+      <c r="H17" s="62"/>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="23">
         <v>0.674220956794433</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="23">
         <v>0.625446988245786</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="23">
         <v>0.863256300081291</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="23">
         <v>0.725357507037924</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="61">
         <v>0.673826631127593</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="62" t="s">
+      <c r="H18" s="62"/>
+      <c r="I18" s="64" t="s">
         <v>25</v>
       </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" ht="14.55" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="63"/>
-      <c r="I19" s="62"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="65"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21">
         <v>0.5</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>0.498957005446749</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="21">
         <v>0.665738915304031</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="60">
         <v>0.498957005446749</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="62"/>
+      <c r="H20" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18">
         <v>0.913685844714369</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="27">
         <v>0.95693116941433</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="18">
         <v>0.866194402508419</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="18">
         <v>0.909304806314955</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="59">
         <v>0.913784911345463</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="62" t="s">
+      <c r="H21" s="62"/>
+      <c r="I21" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>31</v>
+      <c r="J21" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="14">
         <v>0.908279462864264</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <v>0.917552843886268</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="14">
         <v>0.896806410405295</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="14">
         <v>0.907061013783747</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="55">
         <v>0.908303395526712</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" ht="14.55" spans="1:9">
-      <c r="A23" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="21">
+      <c r="A23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23">
         <v>0.786617122743685</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="23">
         <v>0.733282170807041</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="23">
         <v>0.898792242480548</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="23">
         <v>0.807644947197061</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="61">
         <v>0.786383126665894</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="62" t="s">
+      <c r="H23" s="62"/>
+      <c r="I23" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="21">
         <v>0.5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="21">
         <v>0.498957005</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="21">
         <v>0.665738915</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="60">
         <v>0.498957005</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="25">
+      <c r="A25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="27">
         <v>0.937143841246892</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="18">
         <v>0.929036450910417</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="18">
         <v>0.946266403437463</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="27">
         <v>0.937572274288475</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="66">
         <v>0.937124811681539</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="62" t="s">
-        <v>36</v>
+      <c r="H25" s="62"/>
+      <c r="I25" s="64" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="1" hidden="1" spans="1:9">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0.934549339204924</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.928260670452463</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.941563116943444</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.9348</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0.934534708540966</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0.934184978489663</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.927620965435178</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.941528277784229</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.934522883275412</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0.934169660447328</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" ht="14.55" spans="1:9">
+      <c r="A28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0.89137631291998</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.88511806071694</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.898943212170479</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.891977069109555</v>
+      </c>
+      <c r="F28" s="61">
+        <v>0.891360528450573</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="12">
-        <v>0.934549339204924</v>
-      </c>
-      <c r="C26" s="12">
-        <v>0.928260670452463</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0.941563116943444</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.9348</v>
-      </c>
-      <c r="F26" s="53">
-        <v>0.934534708540966</v>
-      </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:9">
-      <c r="A27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="12">
-        <v>0.934184978489663</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0.927620965435178</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0.941528277784229</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.934522883275412</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0.934169660447328</v>
-      </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" ht="14.55" spans="1:9">
-      <c r="A28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="21">
-        <v>0.89137631291998</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.88511806071694</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.898943212170479</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0.891977069109555</v>
-      </c>
-      <c r="F28" s="59">
-        <v>0.891360528450573</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="62" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="29" ht="14.55" spans="1:6">
-      <c r="A29" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="A29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="29">
         <v>0.900557292917419</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="30">
         <v>0.95855328768034</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="29">
         <v>0.837161769829288</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="29">
         <v>0.893754455568298</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="67">
         <v>0.900689535287982</v>
       </c>
     </row>
     <row r="30" ht="14.55" hidden="1" spans="1:7">
-      <c r="A30" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="30">
+      <c r="A30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="32">
         <v>0.830918695507239</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="32">
         <v>0.984410329644174</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="32">
         <v>0.672442225060968</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="32">
         <v>0.799056102559148</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="68">
         <v>0.831249275698226</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+        <v>44</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" ht="14.55" spans="1:6">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" hidden="1" spans="1:6">
-      <c r="A34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="33">
+      <c r="A34" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="35">
         <v>0.93930203590237</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="35">
         <v>0.944656735370542</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="35">
         <v>0.933039135988851</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="35">
         <v>0.938811995723324</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="69">
         <v>0.939315100243365</v>
       </c>
     </row>
     <row r="35" ht="14.55" hidden="1" spans="1:6">
-      <c r="A35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="35">
+      <c r="A35" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="37">
         <v>0.939986239734108</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="37">
         <v>0.932926411082916</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="37">
         <v>0.947834165602136</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="37">
         <v>0.940321205557731</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="70">
         <v>0.939969869046239</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="37">
+      <c r="A36" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="39">
         <v>0.5</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="39">
         <v>0.498957005446749</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="39">
         <v>1</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="39">
         <v>0.665738915304031</v>
       </c>
-      <c r="F36" s="69">
+      <c r="F36" s="71">
         <v>0.498957005446749</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="62"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="39">
+      <c r="A37" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="41">
         <v>0.9414965940394</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="42">
         <v>0.935238945958016</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="41">
         <v>0.948391592149576</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="41">
         <v>0.941769349193627</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="73">
         <v>0.941482211148452</v>
       </c>
-      <c r="G37" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="62" t="s">
-        <v>36</v>
+      <c r="G37" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="72"/>
+      <c r="I37" s="64" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="42">
+      <c r="A38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="44">
         <v>0.939515199958119</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="45">
         <v>0.940424640312892</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="44">
         <v>0.938218557658808</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="44">
         <v>0.939320303689148</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F38" s="74">
         <v>0.93951790473983</v>
       </c>
-      <c r="G38" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="62"/>
+      <c r="G38" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="72"/>
+      <c r="I38" s="64"/>
     </row>
     <row r="39" ht="14.55" spans="1:9">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="47">
+        <v>0.935922391686724</v>
+      </c>
+      <c r="C39" s="47">
+        <v>0.929710850271972</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0.942828939728254</v>
+      </c>
+      <c r="E39" s="47">
+        <v>0.936223945570386</v>
+      </c>
+      <c r="F39" s="75">
+        <v>0.935907984702746</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="72"/>
+      <c r="I39" s="64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="14.55" spans="1:9">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="64"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="39">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1</v>
+      </c>
+      <c r="E41" s="39">
+        <v>0.665738915304031</v>
+      </c>
+      <c r="F41" s="71">
+        <v>0.498957005446749</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="64"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="44">
+        <v>0.934570882512929</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0.933727536231884</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0.935245616072465</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0.934485959619401</v>
+      </c>
+      <c r="F42" s="74">
+        <v>0.934569475026074</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="72"/>
+      <c r="I42" s="64"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="42">
+        <v>0.939272274012397</v>
+      </c>
+      <c r="C43" s="42">
+        <v>0.930368077211991</v>
+      </c>
+      <c r="D43" s="42">
+        <v>0.949297410289165</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.939737429011565</v>
+      </c>
+      <c r="F43" s="76">
+        <v>0.939251361687333</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="72"/>
+      <c r="I43" s="64"/>
+    </row>
+    <row r="44" ht="14.55" spans="1:9">
+      <c r="A44" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="47">
+        <v>0.93630037662043</v>
+      </c>
+      <c r="C44" s="47">
+        <v>0.93190887450119</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0.941075368714435</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0.936469690928946</v>
+      </c>
+      <c r="F44" s="75">
+        <v>0.936290416038938</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="I44" s="64"/>
+    </row>
+    <row r="45" ht="14.55" spans="1:9">
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="64"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="54">
+        <v>0.938980598626764</v>
+      </c>
+      <c r="C46" s="54">
+        <v>0.933250020063975</v>
+      </c>
+      <c r="D46" s="54">
+        <v>0.945290906979444</v>
+      </c>
+      <c r="E46" s="54">
+        <v>0.93923187427523</v>
+      </c>
+      <c r="F46" s="77">
+        <v>0.938967435392281</v>
+      </c>
+      <c r="G46" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="45">
-        <v>0.935922391686724</v>
-      </c>
-      <c r="C39" s="45">
-        <v>0.929710850271972</v>
-      </c>
-      <c r="D39" s="45">
-        <v>0.942828939728254</v>
-      </c>
-      <c r="E39" s="45">
-        <v>0.936223945570386</v>
-      </c>
-      <c r="F39" s="73">
-        <v>0.935907984702746</v>
-      </c>
-      <c r="G39" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" ht="14.55" spans="1:9">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="C41" s="37">
-        <v>0.498957005446749</v>
-      </c>
-      <c r="D41" s="37">
-        <v>1</v>
-      </c>
-      <c r="E41" s="37">
-        <v>0.665738915304031</v>
-      </c>
-      <c r="F41" s="69">
-        <v>0.498957005446749</v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="42">
-        <v>0.934570882512929</v>
-      </c>
-      <c r="C42" s="42">
-        <v>0.933727536231884</v>
-      </c>
-      <c r="D42" s="42">
-        <v>0.935245616072465</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0.934485959619401</v>
-      </c>
-      <c r="F42" s="72">
-        <v>0.934569475026074</v>
-      </c>
-      <c r="G42" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="50" t="s">
+      <c r="H46" s="72"/>
+      <c r="I46" s="64"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="44">
+        <v>0.936590001893248</v>
+      </c>
+      <c r="C47" s="44">
+        <v>0.932236138425973</v>
+      </c>
+      <c r="D47" s="44">
+        <v>0.941319242828939</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0.936755672920795</v>
+      </c>
+      <c r="F47" s="74">
+        <v>0.936580136748174</v>
+      </c>
+      <c r="G47" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="72"/>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0.940109036992643</v>
+      </c>
+      <c r="C48" s="42">
+        <v>0.939830508474576</v>
+      </c>
+      <c r="D48" s="42">
+        <v>0.940157937521774</v>
+      </c>
+      <c r="E48" s="42">
+        <v>0.93999419448476</v>
+      </c>
+      <c r="F48" s="76">
+        <v>0.940108934986672</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="64"/>
+    </row>
+    <row r="49" ht="14.55" spans="1:9">
+      <c r="A49" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="47">
+        <v>0.935398406891108</v>
+      </c>
+      <c r="C49" s="47">
+        <v>0.932594644506001</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0.938334688189525</v>
+      </c>
+      <c r="E49" s="47">
+        <v>0.935455861070911</v>
+      </c>
+      <c r="F49" s="75">
+        <v>0.935392281840306</v>
+      </c>
+      <c r="G49" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="40">
-        <v>0.939272274012397</v>
-      </c>
-      <c r="C43" s="40">
-        <v>0.930368077211991</v>
-      </c>
-      <c r="D43" s="40">
-        <v>0.949297410289165</v>
-      </c>
-      <c r="E43" s="40">
-        <v>0.939737429011565</v>
-      </c>
-      <c r="F43" s="74">
-        <v>0.939251361687333</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="62"/>
-    </row>
-    <row r="44" ht="14.55" spans="1:9">
-      <c r="A44" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="45">
-        <v>0.93630037662043</v>
-      </c>
-      <c r="C44" s="45">
-        <v>0.93190887450119</v>
-      </c>
-      <c r="D44" s="45">
-        <v>0.941075368714435</v>
-      </c>
-      <c r="E44" s="45">
-        <v>0.936469690928946</v>
-      </c>
-      <c r="F44" s="73">
-        <v>0.936290416038938</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" ht="14.55" spans="1:9">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="52">
-        <v>0.938980598626764</v>
-      </c>
-      <c r="C46" s="52">
-        <v>0.933250020063975</v>
-      </c>
-      <c r="D46" s="52">
-        <v>0.945290906979444</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0.93923187427523</v>
-      </c>
-      <c r="F46" s="75">
-        <v>0.938967435392281</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="70"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="42">
-        <v>0.936590001893248</v>
-      </c>
-      <c r="C47" s="42">
-        <v>0.932236138425973</v>
-      </c>
-      <c r="D47" s="42">
-        <v>0.941319242828939</v>
-      </c>
-      <c r="E47" s="42">
-        <v>0.936755672920795</v>
-      </c>
-      <c r="F47" s="72">
-        <v>0.936580136748174</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="40">
-        <v>0.940109036992643</v>
-      </c>
-      <c r="C48" s="40">
-        <v>0.939830508474576</v>
-      </c>
-      <c r="D48" s="40">
-        <v>0.940157937521774</v>
-      </c>
-      <c r="E48" s="40">
-        <v>0.93999419448476</v>
-      </c>
-      <c r="F48" s="74">
-        <v>0.940108934986672</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="70"/>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" ht="14.55" spans="1:9">
-      <c r="A49" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="45">
-        <v>0.935398406891108</v>
-      </c>
-      <c r="C49" s="45">
-        <v>0.932594644506001</v>
-      </c>
-      <c r="D49" s="45">
-        <v>0.938334688189525</v>
-      </c>
-      <c r="E49" s="45">
-        <v>0.935455861070911</v>
-      </c>
-      <c r="F49" s="73">
-        <v>0.935392281840306</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="70"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2833,10 +2898,10 @@
   <sheetData>
     <row r="2" spans="4:13">
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2849,126 +2914,172 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.3083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.8" style="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.8" style="3"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1833333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.8" style="1"/>
+    <col min="5" max="5" width="20.925" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.4166666666667" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" ht="84" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="H7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13703" activeTab="2"/>
+    <workbookView windowHeight="13703"/>
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" r:id="rId1"/>
@@ -347,11 +347,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -413,8 +413,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +430,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,24 +474,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,29 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +536,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,14 +556,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -608,187 +608,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +938,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,7 +947,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,6 +982,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1005,164 +1016,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,61 +1209,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1272,43 +1272,43 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1317,88 +1317,88 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,10 +1803,10 @@
   <sheetPr/>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.8"/>
@@ -2187,7 +2187,7 @@
       <c r="H17" s="62"/>
       <c r="I17" s="64"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" ht="14.55" spans="1:13">
       <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0.900689535287982</v>
       </c>
     </row>
-    <row r="30" ht="14.55" hidden="1" spans="1:7">
+    <row r="30" ht="14.55" spans="1:7">
       <c r="A30" s="31" t="s">
         <v>42</v>
       </c>
@@ -2916,7 +2916,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
